--- a/contratos/contratos-12-2013.xlsx
+++ b/contratos/contratos-12-2013.xlsx
@@ -715,7 +715,7 @@
     <t>RULEMANES LITORAL S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SERVICER S.A.</t>
@@ -766,7 +766,7 @@
     <t>TOME SARA EVA GRACIELA</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BONFANTINO LAURA</t>
@@ -778,10 +778,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>ASOCIACION BANCARIA S.E.B</t>
@@ -889,7 +889,7 @@
     <t>VIVESCAS S.R.L.</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>DEVOL S.A.</t>
@@ -1162,7 +1162,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>PINTURERIA URUGUAY / ARCO IRIS</t>
@@ -1309,637 +1309,637 @@
     <t>261</t>
   </si>
   <si>
-    <t>2.979,00</t>
-  </si>
-  <si>
-    <t>176.000,00</t>
-  </si>
-  <si>
-    <t>163.550,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>817.852,00</t>
-  </si>
-  <si>
-    <t>470,00</t>
-  </si>
-  <si>
-    <t>3.665,00</t>
-  </si>
-  <si>
-    <t>12.900,00</t>
-  </si>
-  <si>
-    <t>414.837,57</t>
-  </si>
-  <si>
-    <t>176,00</t>
-  </si>
-  <si>
-    <t>726.000,00</t>
-  </si>
-  <si>
-    <t>374.700,00</t>
-  </si>
-  <si>
-    <t>473,60</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>169.802,93</t>
-  </si>
-  <si>
-    <t>570.040,04</t>
-  </si>
-  <si>
-    <t>84.227,95</t>
-  </si>
-  <si>
-    <t>9.400,00</t>
-  </si>
-  <si>
-    <t>3.192,00</t>
-  </si>
-  <si>
-    <t>11.834,27</t>
-  </si>
-  <si>
-    <t>18.546,32</t>
-  </si>
-  <si>
-    <t>14.715,00</t>
-  </si>
-  <si>
-    <t>646,40</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>140,48</t>
-  </si>
-  <si>
-    <t>4.810,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>121,92</t>
-  </si>
-  <si>
-    <t>1.958,74</t>
-  </si>
-  <si>
-    <t>74,00</t>
-  </si>
-  <si>
-    <t>51.403,81</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>71,83</t>
-  </si>
-  <si>
-    <t>116.853,00</t>
-  </si>
-  <si>
-    <t>12.828,40</t>
-  </si>
-  <si>
-    <t>424,88</t>
-  </si>
-  <si>
-    <t>1.299,00</t>
-  </si>
-  <si>
-    <t>1.478,00</t>
-  </si>
-  <si>
-    <t>934,36</t>
-  </si>
-  <si>
-    <t>14.166,00</t>
-  </si>
-  <si>
-    <t>7.565,00</t>
-  </si>
-  <si>
-    <t>58.851,21</t>
-  </si>
-  <si>
-    <t>2.499,66</t>
-  </si>
-  <si>
-    <t>751,18</t>
-  </si>
-  <si>
-    <t>3.736,03</t>
-  </si>
-  <si>
-    <t>10.087,00</t>
-  </si>
-  <si>
-    <t>28,75</t>
-  </si>
-  <si>
-    <t>1.750,53</t>
-  </si>
-  <si>
-    <t>396,00</t>
-  </si>
-  <si>
-    <t>810,00</t>
-  </si>
-  <si>
-    <t>877,58</t>
-  </si>
-  <si>
-    <t>1.219,00</t>
-  </si>
-  <si>
-    <t>2.480,00</t>
-  </si>
-  <si>
-    <t>42.354,09</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>32.254,50</t>
-  </si>
-  <si>
-    <t>359,04</t>
-  </si>
-  <si>
-    <t>1.070,99</t>
-  </si>
-  <si>
-    <t>4.646,24</t>
-  </si>
-  <si>
-    <t>962,54</t>
-  </si>
-  <si>
-    <t>1.555,00</t>
-  </si>
-  <si>
-    <t>805,00</t>
-  </si>
-  <si>
-    <t>22.631,68</t>
-  </si>
-  <si>
-    <t>765,77</t>
-  </si>
-  <si>
-    <t>329,00</t>
-  </si>
-  <si>
-    <t>793,71</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>1.026,00</t>
-  </si>
-  <si>
-    <t>2.040,65</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>17.834,00</t>
-  </si>
-  <si>
-    <t>2.875,00</t>
-  </si>
-  <si>
-    <t>5.976,12</t>
-  </si>
-  <si>
-    <t>1.570,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>31.800,00</t>
-  </si>
-  <si>
-    <t>2.620,00</t>
-  </si>
-  <si>
-    <t>646,00</t>
-  </si>
-  <si>
-    <t>14.856,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>2.292,00</t>
-  </si>
-  <si>
-    <t>5.745,00</t>
-  </si>
-  <si>
-    <t>81,80</t>
-  </si>
-  <si>
-    <t>558,00</t>
-  </si>
-  <si>
-    <t>504,00</t>
-  </si>
-  <si>
-    <t>763,63</t>
-  </si>
-  <si>
-    <t>1.890,00</t>
-  </si>
-  <si>
-    <t>591,30</t>
-  </si>
-  <si>
-    <t>4.355,88</t>
-  </si>
-  <si>
-    <t>1.520,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>28.500,00</t>
-  </si>
-  <si>
-    <t>40.500,00</t>
-  </si>
-  <si>
-    <t>162,58</t>
-  </si>
-  <si>
-    <t>270.000,00</t>
-  </si>
-  <si>
-    <t>9.469,51</t>
-  </si>
-  <si>
-    <t>880,32</t>
-  </si>
-  <si>
-    <t>63.823,54</t>
-  </si>
-  <si>
-    <t>120,69</t>
-  </si>
-  <si>
-    <t>56,10</t>
-  </si>
-  <si>
-    <t>13.650,00</t>
-  </si>
-  <si>
-    <t>14.818,80</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>2.896,30</t>
-  </si>
-  <si>
-    <t>28,42</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.840,00</t>
-  </si>
-  <si>
-    <t>6.978,48</t>
-  </si>
-  <si>
-    <t>307,30</t>
-  </si>
-  <si>
-    <t>11.093,32</t>
-  </si>
-  <si>
-    <t>415,00</t>
-  </si>
-  <si>
-    <t>38,94</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>37,29</t>
-  </si>
-  <si>
-    <t>22,76</t>
-  </si>
-  <si>
-    <t>14.200,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>4.476,00</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>1.485,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>65,85</t>
-  </si>
-  <si>
-    <t>2.534,87</t>
-  </si>
-  <si>
-    <t>1.033,71</t>
-  </si>
-  <si>
-    <t>3.107,95</t>
-  </si>
-  <si>
-    <t>128.799,90</t>
-  </si>
-  <si>
-    <t>131.598,40</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>6.630,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>4.480,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>1.074,48</t>
-  </si>
-  <si>
-    <t>25.160,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>10.836,28</t>
-  </si>
-  <si>
-    <t>99,50</t>
-  </si>
-  <si>
-    <t>2.713,56</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>2.814,64</t>
-  </si>
-  <si>
-    <t>595,00</t>
-  </si>
-  <si>
-    <t>3.305,00</t>
-  </si>
-  <si>
-    <t>1.710,00</t>
-  </si>
-  <si>
-    <t>826,79</t>
-  </si>
-  <si>
-    <t>909,00</t>
-  </si>
-  <si>
-    <t>3.621,92</t>
-  </si>
-  <si>
-    <t>2.496,08</t>
-  </si>
-  <si>
-    <t>377,40</t>
-  </si>
-  <si>
-    <t>706,92</t>
-  </si>
-  <si>
-    <t>432,35</t>
-  </si>
-  <si>
-    <t>18.560,40</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>8.956,84</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>6.311,00</t>
-  </si>
-  <si>
-    <t>3.482,76</t>
-  </si>
-  <si>
-    <t>24,14</t>
-  </si>
-  <si>
-    <t>23.936,00</t>
-  </si>
-  <si>
-    <t>496,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>1.770,00</t>
-  </si>
-  <si>
-    <t>123,00</t>
-  </si>
-  <si>
-    <t>1.290,25</t>
-  </si>
-  <si>
-    <t>1.527,60</t>
-  </si>
-  <si>
-    <t>4.699,23</t>
-  </si>
-  <si>
-    <t>2.050,00</t>
-  </si>
-  <si>
-    <t>2.887,50</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>1.962.056,83</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>4.520,84</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>3.514,79</t>
-  </si>
-  <si>
-    <t>567,73</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>433.000,00</t>
-  </si>
-  <si>
-    <t>100.360,00</t>
-  </si>
-  <si>
-    <t>65.500,00</t>
-  </si>
-  <si>
-    <t>319.321,64</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>115.500,00</t>
-  </si>
-  <si>
-    <t>411.312,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>446.000,00</t>
-  </si>
-  <si>
-    <t>432.000,00</t>
-  </si>
-  <si>
-    <t>104.000,00</t>
-  </si>
-  <si>
-    <t>303.471,00</t>
-  </si>
-  <si>
-    <t>20.720,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>1.110,00</t>
+    <t>2979.00</t>
+  </si>
+  <si>
+    <t>176000.00</t>
+  </si>
+  <si>
+    <t>163550.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>817852.00</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>3665.00</t>
+  </si>
+  <si>
+    <t>12900.00</t>
+  </si>
+  <si>
+    <t>414837.57</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>726000.00</t>
+  </si>
+  <si>
+    <t>374700.00</t>
+  </si>
+  <si>
+    <t>473.60</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>169802.93</t>
+  </si>
+  <si>
+    <t>570040.04</t>
+  </si>
+  <si>
+    <t>84227.95</t>
+  </si>
+  <si>
+    <t>9400.00</t>
+  </si>
+  <si>
+    <t>3192.00</t>
+  </si>
+  <si>
+    <t>11834.27</t>
+  </si>
+  <si>
+    <t>18546.32</t>
+  </si>
+  <si>
+    <t>14715.00</t>
+  </si>
+  <si>
+    <t>646.40</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>140.48</t>
+  </si>
+  <si>
+    <t>4810.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>121.92</t>
+  </si>
+  <si>
+    <t>1958.74</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>51403.81</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>71.83</t>
+  </si>
+  <si>
+    <t>116853.00</t>
+  </si>
+  <si>
+    <t>12828.40</t>
+  </si>
+  <si>
+    <t>424.88</t>
+  </si>
+  <si>
+    <t>1299.00</t>
+  </si>
+  <si>
+    <t>1478.00</t>
+  </si>
+  <si>
+    <t>934.36</t>
+  </si>
+  <si>
+    <t>14166.00</t>
+  </si>
+  <si>
+    <t>7565.00</t>
+  </si>
+  <si>
+    <t>58851.21</t>
+  </si>
+  <si>
+    <t>2499.66</t>
+  </si>
+  <si>
+    <t>751.18</t>
+  </si>
+  <si>
+    <t>3736.03</t>
+  </si>
+  <si>
+    <t>10087.00</t>
+  </si>
+  <si>
+    <t>28.75</t>
+  </si>
+  <si>
+    <t>1750.53</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>810.00</t>
+  </si>
+  <si>
+    <t>877.58</t>
+  </si>
+  <si>
+    <t>1219.00</t>
+  </si>
+  <si>
+    <t>2480.00</t>
+  </si>
+  <si>
+    <t>42354.09</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>32254.50</t>
+  </si>
+  <si>
+    <t>359.04</t>
+  </si>
+  <si>
+    <t>1070.99</t>
+  </si>
+  <si>
+    <t>4646.24</t>
+  </si>
+  <si>
+    <t>962.54</t>
+  </si>
+  <si>
+    <t>1555.00</t>
+  </si>
+  <si>
+    <t>805.00</t>
+  </si>
+  <si>
+    <t>22631.68</t>
+  </si>
+  <si>
+    <t>765.77</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>793.71</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>1026.00</t>
+  </si>
+  <si>
+    <t>2040.65</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>17834.00</t>
+  </si>
+  <si>
+    <t>2875.00</t>
+  </si>
+  <si>
+    <t>5976.12</t>
+  </si>
+  <si>
+    <t>1570.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>31800.00</t>
+  </si>
+  <si>
+    <t>2620.00</t>
+  </si>
+  <si>
+    <t>646.00</t>
+  </si>
+  <si>
+    <t>14856.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>2292.00</t>
+  </si>
+  <si>
+    <t>5745.00</t>
+  </si>
+  <si>
+    <t>81.80</t>
+  </si>
+  <si>
+    <t>558.00</t>
+  </si>
+  <si>
+    <t>504.00</t>
+  </si>
+  <si>
+    <t>763.63</t>
+  </si>
+  <si>
+    <t>1890.00</t>
+  </si>
+  <si>
+    <t>591.30</t>
+  </si>
+  <si>
+    <t>4355.88</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>28500.00</t>
+  </si>
+  <si>
+    <t>40500.00</t>
+  </si>
+  <si>
+    <t>162.58</t>
+  </si>
+  <si>
+    <t>270000.00</t>
+  </si>
+  <si>
+    <t>9469.51</t>
+  </si>
+  <si>
+    <t>880.32</t>
+  </si>
+  <si>
+    <t>63823.54</t>
+  </si>
+  <si>
+    <t>120.69</t>
+  </si>
+  <si>
+    <t>56.10</t>
+  </si>
+  <si>
+    <t>13650.00</t>
+  </si>
+  <si>
+    <t>14818.80</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>2896.30</t>
+  </si>
+  <si>
+    <t>28.42</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1840.00</t>
+  </si>
+  <si>
+    <t>6978.48</t>
+  </si>
+  <si>
+    <t>307.30</t>
+  </si>
+  <si>
+    <t>11093.32</t>
+  </si>
+  <si>
+    <t>415.00</t>
+  </si>
+  <si>
+    <t>38.94</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>37.29</t>
+  </si>
+  <si>
+    <t>22.76</t>
+  </si>
+  <si>
+    <t>14200.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>4476.00</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>1485.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>65.85</t>
+  </si>
+  <si>
+    <t>2534.87</t>
+  </si>
+  <si>
+    <t>1033.71</t>
+  </si>
+  <si>
+    <t>3107.95</t>
+  </si>
+  <si>
+    <t>128799.90</t>
+  </si>
+  <si>
+    <t>131598.40</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>6630.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>4480.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>1074.48</t>
+  </si>
+  <si>
+    <t>25160.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>10836.28</t>
+  </si>
+  <si>
+    <t>99.50</t>
+  </si>
+  <si>
+    <t>2713.56</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>2814.64</t>
+  </si>
+  <si>
+    <t>595.00</t>
+  </si>
+  <si>
+    <t>3305.00</t>
+  </si>
+  <si>
+    <t>1710.00</t>
+  </si>
+  <si>
+    <t>826.79</t>
+  </si>
+  <si>
+    <t>909.00</t>
+  </si>
+  <si>
+    <t>3621.92</t>
+  </si>
+  <si>
+    <t>2496.08</t>
+  </si>
+  <si>
+    <t>377.40</t>
+  </si>
+  <si>
+    <t>706.92</t>
+  </si>
+  <si>
+    <t>432.35</t>
+  </si>
+  <si>
+    <t>18560.40</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>8956.84</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>6311.00</t>
+  </si>
+  <si>
+    <t>3482.76</t>
+  </si>
+  <si>
+    <t>24.14</t>
+  </si>
+  <si>
+    <t>23936.00</t>
+  </si>
+  <si>
+    <t>496.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>1770.00</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>1290.25</t>
+  </si>
+  <si>
+    <t>1527.60</t>
+  </si>
+  <si>
+    <t>4699.23</t>
+  </si>
+  <si>
+    <t>2050.00</t>
+  </si>
+  <si>
+    <t>2887.50</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>1962056.83</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>4520.84</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>3514.79</t>
+  </si>
+  <si>
+    <t>567.73</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>433000.00</t>
+  </si>
+  <si>
+    <t>100360.00</t>
+  </si>
+  <si>
+    <t>65500.00</t>
+  </si>
+  <si>
+    <t>319321.64</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>115500.00</t>
+  </si>
+  <si>
+    <t>411312.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>446000.00</t>
+  </si>
+  <si>
+    <t>432000.00</t>
+  </si>
+  <si>
+    <t>104000.00</t>
+  </si>
+  <si>
+    <t>303471.00</t>
+  </si>
+  <si>
+    <t>20720.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>1110.00</t>
   </si>
 </sst>
 </file>
